--- a/Simulazioni_RL/Risultati/Strategy/strategy.xlsx
+++ b/Simulazioni_RL/Risultati/Strategy/strategy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,11 @@
           <t>strategy</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>patient</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -446,6 +451,11 @@
           <t>PPO</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adult#007</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Simulazioni_RL/Risultati/Strategy/strategy.xlsx
+++ b/Simulazioni_RL/Risultati/Strategy/strategy.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>adult#007</t>
+          <t>adult#009</t>
         </is>
       </c>
     </row>

--- a/Simulazioni_RL/Risultati/Strategy/strategy.xlsx
+++ b/Simulazioni_RL/Risultati/Strategy/strategy.xlsx
@@ -448,12 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PPO</t>
+          <t>PID</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>adult#009</t>
+          <t>adult#010</t>
         </is>
       </c>
     </row>

--- a/Simulazioni_RL/Risultati/Strategy/strategy.xlsx
+++ b/Simulazioni_RL/Risultati/Strategy/strategy.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PID</t>
+          <t>BBC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/Simulazioni_RL/Risultati/Strategy/strategy.xlsx
+++ b/Simulazioni_RL/Risultati/Strategy/strategy.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>adult#010</t>
+          <t>adult#003</t>
         </is>
       </c>
     </row>
